--- a/xlsx/斯里蘭卡_intext.xlsx
+++ b/xlsx/斯里蘭卡_intext.xlsx
@@ -29,7 +29,7 @@
     <t>锡兰 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_斯里蘭卡</t>
+    <t>体育运动_体育运动_明成祖_斯里蘭卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1%E5%9C%8B%E6%97%97</t>
